--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_26.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1450614.074342937</v>
+        <v>1424177.519032987</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14829673.35797655</v>
+        <v>14829673.35797656</v>
       </c>
     </row>
     <row r="9">
@@ -665,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="F2" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="F2" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="G2" t="n">
         <v>205.5178444382804</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -738,13 +738,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>119.3034809802377</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>1.275125686688507</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G5" t="n">
-        <v>159.0801288120801</v>
-      </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -950,11 +950,11 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>162.1947822849135</v>
       </c>
     </row>
     <row r="6">
@@ -978,22 +978,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>44.369076426507</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>43.94493877725959</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>19.20171008547518</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1260,25 +1260,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>19.09345814857096</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>186.3732331246961</v>
+      </c>
+      <c r="X9" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V9" t="n">
+      <c r="Y9" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1330,13 +1330,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1424,11 +1424,11 @@
         <v>205.5178444382804</v>
       </c>
       <c r="U11" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="V11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>120.0500723064956</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>14.48693373137008</v>
       </c>
     </row>
     <row r="13">
@@ -1546,13 +1546,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,13 +1567,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1607,28 +1607,28 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>169.0708280266249</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>7.692106705274854</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>7.692106705274854</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1783,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
         <v>241.0142888776591</v>
@@ -1862,10 +1862,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>23.81301614990497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>21.0507685937734</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -2041,13 +2041,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>130.4655268502615</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2084,7 +2084,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2099,10 +2099,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>7.778646031951277</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2163,22 +2163,22 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>63.88882306452232</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2211,16 +2211,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>176.1422055959472</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2290,13 +2290,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,64 +2315,64 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>21.18375537072436</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T23" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2397,10 +2397,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>132.1946129538656</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2442,19 +2442,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>89.93607067950306</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2567,16 +2567,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>40.47627913313517</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2643,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,25 +2679,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>142.5604457808193</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2752,13 +2752,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2789,76 +2789,76 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
+      <c r="H29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="E29" t="n">
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R29" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S29" t="n">
+        <v>52.42556848774752</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.66067414728059</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -2916,25 +2916,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>167.4063089439662</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3026,76 +3026,76 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T32" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="V32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="X32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3108,10 +3108,10 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3120,16 +3120,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>97.48188567889162</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,25 +3153,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>143.1689537721622</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3205,10 +3205,10 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3308,19 +3308,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3329,10 +3329,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3345,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3354,19 +3354,19 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>27.48695424525854</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,25 +3393,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>39.08117332487333</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3509,10 +3509,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>241.0142888776591</v>
@@ -3521,10 +3521,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3579,19 +3579,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>46.07392628728185</v>
+        <v>112.1123410997431</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3831,10 +3831,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>41.30402073131225</v>
       </c>
       <c r="H42" t="n">
-        <v>104.1252322629233</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3870,13 +3870,13 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -3885,7 +3885,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3977,17 +3977,17 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
@@ -4019,20 +4019,20 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
@@ -4040,10 +4040,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,10 +4053,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>108.7702391107092</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4065,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4113,16 +4113,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="46">
@@ -4135,67 +4135,67 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="C2" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="D2" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="E2" t="n">
         <v>614.4775954922324</v>
       </c>
-      <c r="C2" t="n">
-        <v>614.4775954922324</v>
-      </c>
-      <c r="D2" t="n">
-        <v>614.4775954922324</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>431.628992076841</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>224.0352098159517</v>
       </c>
-      <c r="G2" t="n">
-        <v>16.44142755506243</v>
-      </c>
       <c r="H2" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="I2" t="n">
         <v>16.44142755506243</v>
@@ -4334,13 +4334,13 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M2" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N2" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O2" t="n">
         <v>732.4113224610707</v>
@@ -4355,25 +4355,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T2" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U2" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V2" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W2" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X2" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y2" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.1895897481025</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C3" t="n">
-        <v>438.7365604669756</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D3" t="n">
-        <v>289.8021508057243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E3" t="n">
-        <v>130.5646958002688</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F3" t="n">
-        <v>130.5646958002688</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G3" t="n">
-        <v>130.5646958002688</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H3" t="n">
         <v>17.19556020784815</v>
@@ -4416,13 +4416,13 @@
         <v>141.7989876128999</v>
       </c>
       <c r="M3" t="n">
-        <v>232.5025681519757</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9652341458732</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O3" t="n">
-        <v>639.4279001397708</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P3" t="n">
         <v>822.0713777531216</v>
@@ -4431,28 +4431,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T3" t="n">
-        <v>822.0713777531216</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U3" t="n">
-        <v>822.0713777531216</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="V3" t="n">
-        <v>822.0713777531216</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="W3" t="n">
-        <v>822.0713777531216</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="X3" t="n">
-        <v>820.7833720089918</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="Y3" t="n">
-        <v>613.1895897481025</v>
+        <v>17.19556020784815</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="C4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="D4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="E4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="F4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="G4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="H4" t="n">
         <v>16.44142755506243</v>
@@ -4519,19 +4519,19 @@
         <v>148.224788009872</v>
       </c>
       <c r="U4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="W4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="X4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>604.3859801240053</v>
+        <v>450.6444820731278</v>
       </c>
       <c r="C5" t="n">
-        <v>604.3859801240053</v>
+        <v>450.6444820731278</v>
       </c>
       <c r="D5" t="n">
-        <v>604.3859801240053</v>
+        <v>450.6444820731278</v>
       </c>
       <c r="E5" t="n">
-        <v>604.3859801240053</v>
+        <v>450.6444820731278</v>
       </c>
       <c r="F5" t="n">
-        <v>396.792197863116</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="G5" t="n">
         <v>236.1051990630351</v>
       </c>
       <c r="H5" t="n">
-        <v>28.51141680214578</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I5" t="n">
         <v>28.51141680214578</v>
@@ -4574,7 +4574,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
         <v>583.2163723184226</v>
@@ -4586,31 +4586,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R5" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S5" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T5" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U5" t="n">
-        <v>604.3859801240053</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V5" t="n">
-        <v>604.3859801240053</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W5" t="n">
-        <v>604.3859801240053</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X5" t="n">
-        <v>604.3859801240053</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y5" t="n">
-        <v>604.3859801240053</v>
+        <v>450.6444820731278</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>311.1214714038841</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="C6" t="n">
-        <v>311.1214714038841</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="D6" t="n">
-        <v>311.1214714038841</v>
+        <v>575.067534196224</v>
       </c>
       <c r="E6" t="n">
-        <v>151.8840163984286</v>
+        <v>415.8300791907684</v>
       </c>
       <c r="F6" t="n">
-        <v>151.8840163984286</v>
+        <v>269.2955212176533</v>
       </c>
       <c r="G6" t="n">
-        <v>151.8840163984286</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="H6" t="n">
-        <v>107.4951893506917</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I6" t="n">
         <v>17.19556020784815</v>
@@ -4653,13 +4653,13 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N6" t="n">
-        <v>549.2141532458947</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O6" t="n">
-        <v>752.6768192397923</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P6" t="n">
         <v>752.6768192397923</v>
@@ -4668,28 +4668,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T6" t="n">
-        <v>518.7152536647734</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U6" t="n">
-        <v>518.7152536647734</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V6" t="n">
-        <v>311.1214714038841</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="W6" t="n">
-        <v>311.1214714038841</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="X6" t="n">
-        <v>311.1214714038841</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="Y6" t="n">
-        <v>311.1214714038841</v>
+        <v>619.8847831118876</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I7" t="n">
         <v>16.44142755506243</v>
@@ -4747,28 +4747,28 @@
         <v>150.9737180453332</v>
       </c>
       <c r="R7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>651.2927635848137</v>
+      </c>
+      <c r="C8" t="n">
+        <v>651.2927635848137</v>
+      </c>
+      <c r="D8" t="n">
+        <v>651.2927635848137</v>
+      </c>
+      <c r="E8" t="n">
+        <v>651.2927635848137</v>
+      </c>
+      <c r="F8" t="n">
         <v>443.6989813239244</v>
       </c>
-      <c r="C8" t="n">
-        <v>443.6989813239244</v>
-      </c>
-      <c r="D8" t="n">
-        <v>443.6989813239244</v>
-      </c>
-      <c r="E8" t="n">
-        <v>443.6989813239244</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>236.1051990630351</v>
-      </c>
-      <c r="G8" t="n">
-        <v>28.51141680214578</v>
       </c>
       <c r="H8" t="n">
         <v>28.51141680214578</v>
@@ -4811,13 +4811,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N8" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O8" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
@@ -4826,28 +4826,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="V8" t="n">
         <v>651.2927635848137</v>
       </c>
       <c r="W8" t="n">
-        <v>443.6989813239244</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="X8" t="n">
-        <v>443.6989813239244</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="Y8" t="n">
-        <v>443.6989813239244</v>
+        <v>651.2927635848137</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
@@ -4887,10 +4887,10 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>163.1080096386462</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N9" t="n">
         <v>366.5706756325438</v>
@@ -4908,25 +4908,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>802.7850563909287</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>600.5984617496947</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U9" t="n">
-        <v>393.0046794888054</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V9" t="n">
-        <v>185.4108972279162</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="W9" t="n">
-        <v>185.4108972279162</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X9" t="n">
-        <v>185.4108972279162</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y9" t="n">
-        <v>185.4108972279162</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="10">
@@ -4978,22 +4978,22 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V10" t="n">
         <v>16.44142755506243</v>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C11" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D11" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E11" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F11" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G11" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H11" t="n">
         <v>16.44142755506243</v>
@@ -5042,13 +5042,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
         <v>583.2163723184226</v>
@@ -5072,19 +5072,19 @@
         <v>614.4775954922324</v>
       </c>
       <c r="U11" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V11" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W11" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X11" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y11" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="12">
@@ -5094,13 +5094,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>137.7041268545529</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C12" t="n">
-        <v>137.7041268545529</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D12" t="n">
-        <v>137.7041268545529</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E12" t="n">
         <v>16.44142755506243</v>
@@ -5124,10 +5124,10 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2616536067974</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M12" t="n">
-        <v>366.5706756325438</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N12" t="n">
         <v>366.5706756325438</v>
@@ -5142,28 +5142,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>345.2979091154422</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U12" t="n">
-        <v>137.7041268545529</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V12" t="n">
-        <v>137.7041268545529</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W12" t="n">
-        <v>137.7041268545529</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X12" t="n">
-        <v>137.7041268545529</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y12" t="n">
-        <v>137.7041268545529</v>
+        <v>184.6567645751305</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I13" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5215,34 +5215,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="14">
@@ -5255,43 +5255,43 @@
         <v>822.0713777531216</v>
       </c>
       <c r="C14" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D14" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E14" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="F14" t="n">
-        <v>224.0352098159517</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="G14" t="n">
-        <v>224.0352098159517</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="H14" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="I14" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L14" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>399.9799451336186</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
@@ -5331,7 +5331,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>822.0713777531216</v>
+        <v>814.3015730003187</v>
       </c>
       <c r="C15" t="n">
         <v>814.3015730003187</v>
@@ -5364,10 +5364,10 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>435.9652341458732</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N15" t="n">
-        <v>435.9652341458732</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="O15" t="n">
         <v>639.4279001397708</v>
@@ -5394,13 +5394,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>814.3015730003187</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>814.3015730003187</v>
       </c>
       <c r="Y15" t="n">
-        <v>822.0713777531216</v>
+        <v>814.3015730003187</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I16" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J16" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5452,34 +5452,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F17" t="n">
-        <v>718.7806050553886</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G17" t="n">
-        <v>475.3318284112885</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H17" t="n">
-        <v>231.8830517671884</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>929.9119884758385</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="D18" t="n">
         <v>668.2068788942177</v>
@@ -5616,28 +5616,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="19">
@@ -5689,10 +5689,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>749.627473042513</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="C20" t="n">
-        <v>506.1786963984129</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>956.199937296544</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>956.199937296544</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>956.199937296544</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="U20" t="n">
-        <v>953.9655401424092</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="V20" t="n">
-        <v>953.9655401424092</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="W20" t="n">
-        <v>953.9655401424092</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="X20" t="n">
-        <v>953.9655401424092</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="Y20" t="n">
-        <v>749.627473042513</v>
+        <v>730.8505943024719</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>83.81530782185143</v>
+        <v>612.718391167419</v>
       </c>
       <c r="C21" t="n">
-        <v>83.81530782185143</v>
+        <v>612.718391167419</v>
       </c>
       <c r="D21" t="n">
-        <v>83.81530782185143</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E21" t="n">
-        <v>83.81530782185143</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F21" t="n">
-        <v>83.81530782185143</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G21" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5832,22 +5832,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M21" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5859,22 +5859,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>612.718391167419</v>
       </c>
       <c r="U21" t="n">
-        <v>562.4161926976942</v>
+        <v>612.718391167419</v>
       </c>
       <c r="V21" t="n">
-        <v>327.2640844659515</v>
+        <v>612.718391167419</v>
       </c>
       <c r="W21" t="n">
-        <v>83.81530782185143</v>
+        <v>612.718391167419</v>
       </c>
       <c r="X21" t="n">
-        <v>83.81530782185143</v>
+        <v>612.718391167419</v>
       </c>
       <c r="Y21" t="n">
-        <v>83.81530782185143</v>
+        <v>612.718391167419</v>
       </c>
     </row>
     <row r="22">
@@ -5938,10 +5938,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
         <v>19.28114311021272</v>
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>964.0571555106362</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="C23" t="n">
-        <v>749.627473042513</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6014,25 +6014,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X23" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y23" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
     </row>
     <row r="24">
@@ -6042,10 +6042,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>327.2640844659515</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C24" t="n">
-        <v>152.8110551848245</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D24" t="n">
         <v>19.28114311021272</v>
@@ -6075,10 +6075,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O24" t="n">
         <v>781.4136778972854</v>
@@ -6090,28 +6090,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>790.6398109613051</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U24" t="n">
-        <v>562.4161926976942</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V24" t="n">
-        <v>327.2640844659515</v>
+        <v>168.215552771464</v>
       </c>
       <c r="W24" t="n">
-        <v>327.2640844659515</v>
+        <v>168.215552771464</v>
       </c>
       <c r="X24" t="n">
-        <v>327.2640844659515</v>
+        <v>168.215552771464</v>
       </c>
       <c r="Y24" t="n">
-        <v>327.2640844659515</v>
+        <v>168.215552771464</v>
       </c>
     </row>
     <row r="25">
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
         <v>19.28114311021272</v>
@@ -6166,31 +6166,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C26" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6251,25 +6251,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>761.6974622895962</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T26" t="n">
-        <v>761.6974622895962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U26" t="n">
-        <v>761.6974622895962</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V26" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W26" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X26" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y26" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="27">
@@ -6279,46 +6279,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>249.2442489785619</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>487.8483949674443</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6327,28 +6327,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U27" t="n">
-        <v>761.8705608694022</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V27" t="n">
-        <v>617.8701105857464</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W27" t="n">
-        <v>374.4213339416463</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X27" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
         <v>19.28114311021272</v>
@@ -6400,34 +6400,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D29" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E29" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F29" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="G29" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="E29" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F29" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G29" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>55.04605772994853</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C30" t="n">
-        <v>55.04605772994853</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D30" t="n">
-        <v>55.04605772994853</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E30" t="n">
-        <v>55.04605772994853</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F30" t="n">
-        <v>55.04605772994853</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G30" t="n">
-        <v>55.04605772994853</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H30" t="n">
-        <v>55.04605772994853</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I30" t="n">
         <v>20.03527576299844</v>
@@ -6546,46 +6546,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M30" t="n">
-        <v>374.6018090363993</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U30" t="n">
-        <v>533.6469426057913</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V30" t="n">
-        <v>298.4948343740486</v>
+        <v>318.1864051113748</v>
       </c>
       <c r="W30" t="n">
-        <v>55.04605772994853</v>
+        <v>318.1864051113748</v>
       </c>
       <c r="X30" t="n">
-        <v>55.04605772994853</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y30" t="n">
-        <v>55.04605772994853</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="31">
@@ -6643,10 +6643,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
         <v>19.28114311021272</v>
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
         <v>19.28114311021272</v>
@@ -6725,25 +6725,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X32" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>257.2326523711826</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C33" t="n">
-        <v>257.2326523711826</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D33" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>118.5018269537981</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6783,13 +6783,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O33" t="n">
         <v>781.4136778972854</v>
@@ -6801,28 +6801,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U33" t="n">
-        <v>735.8335372470253</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V33" t="n">
-        <v>500.6814290152826</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W33" t="n">
-        <v>257.2326523711826</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X33" t="n">
-        <v>257.2326523711826</v>
+        <v>342.668582052591</v>
       </c>
       <c r="Y33" t="n">
-        <v>257.2326523711826</v>
+        <v>342.668582052591</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
         <v>19.28114311021272</v>
@@ -6898,10 +6898,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C35" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W35" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X35" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y35" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>508.9694238887622</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="C36" t="n">
-        <v>508.9694238887622</v>
+        <v>185.7765687753331</v>
       </c>
       <c r="D36" t="n">
-        <v>508.9694238887622</v>
+        <v>185.7765687753331</v>
       </c>
       <c r="E36" t="n">
-        <v>508.9694238887622</v>
+        <v>185.7765687753331</v>
       </c>
       <c r="F36" t="n">
-        <v>362.4348659156472</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G36" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7023,16 +7023,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N36" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7041,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W36" t="n">
-        <v>924.581222859249</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X36" t="n">
-        <v>716.7297226537162</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="Y36" t="n">
-        <v>508.9694238887622</v>
+        <v>360.2295980564601</v>
       </c>
     </row>
     <row r="37">
@@ -7117,7 +7117,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
         <v>829.5248650203655</v>
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F38" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7202,22 +7202,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>501.9060370580465</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="C39" t="n">
-        <v>327.4530077769195</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D39" t="n">
-        <v>178.5185981156682</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F39" t="n">
         <v>19.28114311021272</v>
@@ -7257,10 +7257,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M39" t="n">
-        <v>473.4149733950735</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N39" t="n">
         <v>473.4149733950735</v>
@@ -7275,28 +7275,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W39" t="n">
-        <v>917.5178360285333</v>
+        <v>749.6428370738824</v>
       </c>
       <c r="X39" t="n">
-        <v>709.6663358230005</v>
+        <v>541.7913368683496</v>
       </c>
       <c r="Y39" t="n">
-        <v>501.9060370580465</v>
+        <v>334.0310381033958</v>
       </c>
     </row>
     <row r="40">
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
         <v>829.5248650203655</v>
@@ -7375,7 +7375,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7415,13 +7415,13 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M41" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N41" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O41" t="n">
         <v>732.4113224610707</v>
@@ -7445,16 +7445,16 @@
         <v>614.4775954922324</v>
       </c>
       <c r="V41" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W41" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X41" t="n">
-        <v>224.0352098159517</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>406.8838132313431</v>
+        <v>204.697218590109</v>
       </c>
       <c r="C42" t="n">
-        <v>406.8838132313431</v>
+        <v>204.697218590109</v>
       </c>
       <c r="D42" t="n">
-        <v>406.8838132313431</v>
+        <v>204.697218590109</v>
       </c>
       <c r="E42" t="n">
-        <v>406.8838132313431</v>
+        <v>204.697218590109</v>
       </c>
       <c r="F42" t="n">
-        <v>260.349255258228</v>
+        <v>58.162660616994</v>
       </c>
       <c r="G42" t="n">
-        <v>121.6184298408435</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H42" t="n">
         <v>16.44142755506243</v>
@@ -7500,7 +7500,7 @@
         <v>435.9652341458732</v>
       </c>
       <c r="N42" t="n">
-        <v>639.4279001397708</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O42" t="n">
         <v>639.4279001397708</v>
@@ -7518,22 +7518,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T42" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V42" t="n">
-        <v>822.0713777531216</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="W42" t="n">
-        <v>822.0713777531216</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="X42" t="n">
-        <v>614.4775954922324</v>
+        <v>204.697218590109</v>
       </c>
       <c r="Y42" t="n">
-        <v>406.8838132313431</v>
+        <v>204.697218590109</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L43" t="n">
-        <v>714.8532122705639</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M43" t="n">
-        <v>754.041250462786</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N43" t="n">
-        <v>797.7321011182223</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>687.5390872628509</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.792197863116</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C44" t="n">
         <v>224.0352098159517</v>
@@ -7631,7 +7631,7 @@
         <v>224.0352098159517</v>
       </c>
       <c r="E44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F44" t="n">
         <v>16.44142755506243</v>
@@ -7649,13 +7649,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N44" t="n">
         <v>583.2163723184226</v>
@@ -7667,31 +7667,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>811.9797623848946</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T44" t="n">
-        <v>604.3859801240053</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U44" t="n">
-        <v>604.3859801240053</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V44" t="n">
-        <v>604.3859801240053</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W44" t="n">
-        <v>604.3859801240053</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X44" t="n">
-        <v>396.792197863116</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.792197863116</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="45">
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>272.8449139228332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C45" t="n">
-        <v>162.9759855281775</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D45" t="n">
-        <v>162.9759855281775</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E45" t="n">
-        <v>162.9759855281775</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
         <v>16.44142755506243</v>
@@ -7728,22 +7728,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2616536067974</v>
+        <v>29.03990215807806</v>
       </c>
       <c r="M45" t="n">
-        <v>548.724319600695</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N45" t="n">
-        <v>570.0333416264414</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O45" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7752,25 +7752,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V45" t="n">
-        <v>648.6540332037905</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W45" t="n">
-        <v>648.6540332037905</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X45" t="n">
-        <v>441.0602509429012</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y45" t="n">
-        <v>441.0602509429012</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="46">
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="C46" t="n">
         <v>687.5390872628509</v>
@@ -7843,13 +7843,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="X46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="Y46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
     </row>
   </sheetData>
@@ -7982,7 +7982,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M2" t="n">
         <v>435.8640776655532</v>
@@ -7991,7 +7991,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
@@ -8064,7 +8064,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
         <v>336.8595565216137</v>
@@ -8073,7 +8073,7 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>204.5647025239554</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8222,10 +8222,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8301,16 +8301,16 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N6" t="n">
-        <v>131.836493543131</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8459,16 +8459,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8535,13 +8535,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>163.6582985944894</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>336.8595565216137</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O9" t="n">
         <v>348.1140888827248</v>
@@ -8690,16 +8690,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M11" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8772,13 +8772,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>163.6582985944894</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
         <v>348.1140888827248</v>
@@ -8927,7 +8927,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -8936,13 +8936,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
-        <v>414.5003637832617</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9012,13 +9012,13 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9480,13 +9480,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>359.8407857361378</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,13 +9723,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9954,22 +9954,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>369.031319612638</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10194,22 +10194,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,16 +10431,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10671,19 +10671,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,13 +10905,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>241.9453110519923</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M41" t="n">
         <v>435.8640776655532</v>
@@ -11072,7 +11072,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11148,10 +11148,10 @@
         <v>233.7538122443171</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11297,16 +11297,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11376,25 +11376,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>151.2801117021122</v>
       </c>
       <c r="M45" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23258,7 +23258,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23273,7 +23273,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>158.4546847345297</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23312,10 +23312,10 @@
         <v>17.57800512585095</v>
       </c>
       <c r="U11" t="n">
-        <v>45.82780846955609</v>
+        <v>70.32553552659908</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23324,7 +23324,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23334,7 +23334,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23343,7 +23343,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>37.59500814890536</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23382,28 +23382,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>20.42353764269441</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>191.1957620459343</v>
       </c>
     </row>
     <row r="13">
@@ -23434,13 +23434,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,13 +23455,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23495,28 +23495,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>184.2527743897702</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>201.358201303431</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
         <v>133.9569576774867</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>41.40506154378102</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23574,7 +23574,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>165.0163922830409</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23634,7 +23634,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>244.0028764556448</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23671,13 +23671,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,13 +23692,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23741,7 +23741,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
         <v>174.288448637476</v>
@@ -23750,10 +23750,10 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,13 +23774,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>126.0561017912447</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
@@ -23811,10 +23811,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>126.3942969708654</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -23856,10 +23856,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
@@ -23929,13 +23929,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.82786452690794</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23972,7 +23972,7 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23987,10 +23987,10 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,7 +24011,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>2.212053182593527</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24020,7 +24020,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24035,7 +24035,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>183.9432522271564</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24051,22 +24051,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>25.50780978689276</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24099,16 +24099,16 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>24.02252309887436</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24178,13 +24178,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,25 +24203,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>152.9875061275656</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>385.6922903709871</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24254,13 +24254,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24285,10 +24285,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>15.25045261077312</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24330,19 +24330,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>142.8645164699222</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24406,7 +24406,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24421,7 +24421,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>205.1127189901543</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24455,16 +24455,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24491,16 +24491,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>168.5437904531102</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24531,7 +24531,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -24543,7 +24543,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,25 +24567,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>90.240141368606</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24604,7 +24604,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>18.14994616795082</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24640,13 +24640,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24677,25 +24677,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24722,13 +24722,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -24746,7 +24746,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24777,7 +24777,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>54.73595870413449</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,25 +24804,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>65.39427820545905</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24883,13 +24883,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24926,7 +24926,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24965,25 +24965,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>328.0572133466886</v>
       </c>
       <c r="X32" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24996,10 +24996,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25008,16 +25008,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>14.75355855760485</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,25 +25041,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>62.60403143131529</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25093,10 +25093,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
-        <v>115.622687458563</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
         <v>22.26949182588285</v>
@@ -25138,7 +25138,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25157,7 +25157,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25196,19 +25196,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>149.0074258151476</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25217,10 +25217,10 @@
         <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25233,7 +25233,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25242,19 +25242,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>117.5822581481253</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25281,25 +25281,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>212.6138098360463</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25357,10 +25357,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25397,10 +25397,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
         <v>174.288448637476</v>
@@ -25409,10 +25409,10 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25442,7 +25442,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25467,19 +25467,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25515,7 +25515,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25530,7 +25530,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>205.6210568736378</v>
+        <v>139.5826420611766</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25615,7 +25615,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>201.7137242822431</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25685,7 +25685,7 @@
         <v>45.82780846955609</v>
       </c>
       <c r="V41" t="n">
-        <v>146.7321410888975</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25719,10 +25719,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>96.03949643189839</v>
       </c>
       <c r="H42" t="n">
-        <v>8.110211973573186</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25758,13 +25758,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -25773,7 +25773,7 @@
         <v>0.2551407651970692</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25831,10 +25831,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25865,16 +25865,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>194.2434736043149</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
@@ -25907,19 +25907,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>27.99995220500799</v>
       </c>
       <c r="T44" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25928,10 +25928,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="45">
@@ -25941,10 +25941,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>63.93825987760657</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25953,7 +25953,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
@@ -25992,7 +25992,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26001,16 +26001,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>51.78046976818791</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
         <v>0.2551407651970692</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="46">
@@ -26023,7 +26023,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26083,7 +26083,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>362944.6045544354</v>
+        <v>362944.6045544352</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>382288.6367122083</v>
+        <v>382288.6367122084</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>382288.6367122084</v>
+        <v>382288.6367122082</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>382288.6367122084</v>
+        <v>382288.6367122083</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>382288.6367122084</v>
+        <v>382288.6367122083</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>382288.6367122083</v>
+        <v>382288.6367122084</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>362944.6045544354</v>
+        <v>362944.6045544355</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
         <v>205084.9343854111</v>
@@ -26344,7 +26344,7 @@
         <v>216008.8742907321</v>
       </c>
       <c r="M2" t="n">
-        <v>216008.8742907321</v>
+        <v>216008.874290732</v>
       </c>
       <c r="N2" t="n">
         <v>216008.8742907321</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>301482.3383053389</v>
+        <v>304569.478223967</v>
       </c>
       <c r="C4" t="n">
-        <v>301482.3383053389</v>
+        <v>304569.4782239669</v>
       </c>
       <c r="D4" t="n">
-        <v>301482.3383053389</v>
+        <v>304569.4782239668</v>
       </c>
       <c r="E4" t="n">
-        <v>12944.46415789077</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="F4" t="n">
-        <v>12944.46415789076</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="G4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="H4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="I4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="J4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="K4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="L4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="M4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="N4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>12944.46415789077</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="P4" t="n">
-        <v>12944.46415789077</v>
+        <v>16031.60407651876</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>117197.9705829082</v>
+        <v>114110.83066428</v>
       </c>
       <c r="C6" t="n">
-        <v>186071.727164598</v>
+        <v>182984.5872459699</v>
       </c>
       <c r="D6" t="n">
-        <v>186071.727164598</v>
+        <v>182984.5872459699</v>
       </c>
       <c r="E6" t="n">
-        <v>179644.9852856729</v>
+        <v>176557.8453670449</v>
       </c>
       <c r="F6" t="n">
-        <v>179644.9852856729</v>
+        <v>176557.8453670449</v>
       </c>
       <c r="G6" t="n">
-        <v>177965.3113534259</v>
+        <v>174711.4729118225</v>
       </c>
       <c r="H6" t="n">
-        <v>187694.354327593</v>
+        <v>184440.5158859896</v>
       </c>
       <c r="I6" t="n">
-        <v>187694.3543275929</v>
+        <v>184440.5158859896</v>
       </c>
       <c r="J6" t="n">
-        <v>133921.8434373835</v>
+        <v>130668.0049957802</v>
       </c>
       <c r="K6" t="n">
-        <v>187694.3543275929</v>
+        <v>184440.5158859896</v>
       </c>
       <c r="L6" t="n">
-        <v>187694.354327593</v>
+        <v>184440.5158859896</v>
       </c>
       <c r="M6" t="n">
-        <v>187694.354327593</v>
+        <v>184440.5158859895</v>
       </c>
       <c r="N6" t="n">
-        <v>187694.354327593</v>
+        <v>184440.5158859896</v>
       </c>
       <c r="O6" t="n">
-        <v>179644.9852856729</v>
+        <v>176557.8453670449</v>
       </c>
       <c r="P6" t="n">
-        <v>179644.9852856729</v>
+        <v>176557.8453670449</v>
       </c>
     </row>
   </sheetData>
@@ -27385,10 +27385,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>200.9102526910244</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F2" t="n">
-        <v>201.358201303431</v>
+        <v>225.855928360474</v>
       </c>
       <c r="G2" t="n">
         <v>209.7848930768546</v>
@@ -27397,7 +27397,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -27427,7 +27427,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27458,13 +27458,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,7 +27473,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>113.4971061691875</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>204.497859516789</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27552,7 +27552,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>31.76164565717806</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
@@ -27591,7 +27591,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>155.8535025062294</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>201.358201303431</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>256.2226087030549</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H5" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27658,7 +27658,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -27670,10 +27670,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>224.0431563711401</v>
       </c>
     </row>
     <row r="6">
@@ -27698,22 +27698,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>103.0759891381317</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>68.29050545923687</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27752,7 +27752,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27792,7 +27792,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -27819,7 +27819,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27868,7 +27868,7 @@
         <v>209.7848930768546</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -27898,22 +27898,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>203.8941394786562</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>158.68143044351</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27953,7 +27953,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27980,25 +27980,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>152.5897129552669</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>65.32175003622351</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="10">
@@ -28050,13 +28050,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>46.82786452690797</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -28068,7 +28068,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -34702,7 +34702,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M2" t="n">
         <v>205.5178444382804</v>
@@ -34711,7 +34711,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34784,7 +34784,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N3" t="n">
         <v>205.5178444382804</v>
@@ -34793,7 +34793,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34942,10 +34942,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="N5" t="n">
         <v>81.03173866048648</v>
-      </c>
-      <c r="N5" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35021,16 +35021,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N6" t="n">
-        <v>0.4947814597977008</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35179,16 +35179,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,13 +35255,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>21.52426467247106</v>
-      </c>
-      <c r="N9" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
         <v>205.5178444382804</v>
@@ -35410,16 +35410,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35492,13 +35492,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>21.52426467247106</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
         <v>205.5178444382804</v>
@@ -35647,7 +35647,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
@@ -35656,13 +35656,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35732,13 +35732,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="N15" t="n">
         <v>91.61977832229879</v>
       </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
       <c r="O15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -36200,13 +36200,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>217.7067518141195</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
@@ -36218,7 +36218,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,13 +36443,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36674,22 +36674,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36914,22 +36914,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,16 +37151,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37312,7 +37312,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37391,19 +37391,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O36" t="n">
-        <v>99.8112771299739</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37625,13 +37625,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>99.81127712997396</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37783,7 +37783,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M41" t="n">
         <v>205.5178444382804</v>
@@ -37792,7 +37792,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37868,10 +37868,10 @@
         <v>91.61977832229879</v>
       </c>
       <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -38017,16 +38017,16 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>205.5178444382804</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="M45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1424177.519032987</v>
+        <v>1425520.573036742</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443406</v>
+        <v>1151840.918742178</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14829673.35797656</v>
+        <v>14661612.74404855</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5912998.467342207</v>
+        <v>5967464.427354636</v>
       </c>
     </row>
     <row r="11">
@@ -665,22 +667,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>181.0201173812374</v>
+        <v>19.88180868221617</v>
       </c>
       <c r="G2" t="n">
-        <v>205.5178444382804</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -783,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="U3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>119.3034809802377</v>
+        <v>46.38724422570589</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -832,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -856,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>26.16190956546853</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -905,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>205.5178444382804</v>
+        <v>71.01467844038824</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>205.5178444382804</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -938,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>162.1947822849135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,10 +977,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="D6" t="n">
-        <v>44.369076426507</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -993,7 +995,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1020,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1069,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="I7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1093,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1142,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>205.5178444382804</v>
+        <v>83.62107945332558</v>
       </c>
       <c r="G8" t="n">
-        <v>205.5178444382804</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1184,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>19.20171008547518</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1218,13 +1220,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1257,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1272,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>186.3732331246961</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.5178444382804</v>
+        <v>162.8159536240223</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1333,10 +1335,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1351,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="C11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,13 +1423,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1446,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1500,22 +1502,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U12" t="n">
-        <v>205.5178444382804</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>205.5178444382804</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>14.48693373137008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1546,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
@@ -1610,25 +1612,25 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
-        <v>169.0708280266249</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1689,25 +1691,25 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1737,19 +1739,19 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>7.692106705274854</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J16" t="n">
         <v>93.35918011667277</v>
@@ -1926,13 +1928,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>21.0507685937734</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
@@ -1968,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>223.7581669003797</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2044,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2078,31 +2080,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" t="n">
-        <v>241.0142888776591</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2123,16 +2125,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>7.778646031951277</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2160,19 +2162,19 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2211,19 +2213,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>176.1422055959472</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>132.1946129538656</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2290,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>200.3360962888297</v>
+      </c>
+      <c r="E23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
       <c r="F23" t="n">
-        <v>21.18375537072436</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2339,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2366,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2397,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>153.1223737745848</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -2406,13 +2408,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,25 +2444,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>89.93607067950306</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2518,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2527,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2552,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2597,22 +2599,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V26" t="n">
-        <v>102.3382270926889</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2631,10 +2633,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2646,16 +2648,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>36.40754942051851</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2755,10 +2757,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>47.02492433367365</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2801,13 +2803,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2837,19 +2839,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>52.42556848774752</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>234.288905720311</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2858,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,16 +2873,16 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2889,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>12.46188445809753</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -2916,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>167.4063089439662</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2956,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2989,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -3001,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3077,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U32" t="n">
         <v>241.0142888776591</v>
@@ -3089,13 +3091,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="33">
@@ -3108,10 +3110,10 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3153,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>143.1689537721622</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3250,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3272,10 +3274,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3308,19 +3310,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3332,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="36">
@@ -3342,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3354,10 +3356,10 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>27.48695424525854</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3366,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,25 +3395,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>176.1919908257736</v>
       </c>
     </row>
     <row r="37">
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3503,28 +3505,28 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3566,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3579,25 +3581,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>131.9191607488403</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3642,13 +3644,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>112.1123410997431</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3737,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>181.0201173812374</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3758,10 +3760,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3794,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,22 +3818,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>41.30402073131225</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3840,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3864,28 +3866,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>45.02278574591163</v>
       </c>
     </row>
     <row r="43">
@@ -3946,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3986,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -3995,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>181.0201173812374</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4077,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4104,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>156.8566953852486</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4113,16 +4115,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>181.0201173812374</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.5178444382804</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4192,10 +4194,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>822.0713777531216</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="C2" t="n">
-        <v>822.0713777531216</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="D2" t="n">
-        <v>822.0713777531216</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="E2" t="n">
-        <v>614.4775954922324</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="F2" t="n">
-        <v>431.628992076841</v>
+        <v>85.86136179523773</v>
       </c>
       <c r="G2" t="n">
-        <v>224.0352098159517</v>
+        <v>70.40405117388919</v>
       </c>
       <c r="H2" t="n">
-        <v>224.0352098159517</v>
+        <v>70.40405117388919</v>
       </c>
       <c r="I2" t="n">
-        <v>16.44142755506243</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="J2" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>119.4564334659848</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="L2" t="n">
-        <v>176.2910403306274</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="M2" t="n">
-        <v>379.753706324525</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="N2" t="n">
-        <v>583.2163723184226</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O2" t="n">
-        <v>732.4113224610707</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P2" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="U2" t="n">
-        <v>822.0713777531216</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="V2" t="n">
-        <v>822.0713777531216</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="W2" t="n">
-        <v>822.0713777531216</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="X2" t="n">
-        <v>822.0713777531216</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="Y2" t="n">
-        <v>822.0713777531216</v>
+        <v>105.9439968277793</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.19556020784815</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="C3" t="n">
-        <v>17.19556020784815</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="D3" t="n">
-        <v>17.19556020784815</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="E3" t="n">
-        <v>17.19556020784815</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="F3" t="n">
-        <v>17.19556020784815</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="G3" t="n">
-        <v>17.19556020784815</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="H3" t="n">
-        <v>17.19556020784815</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="I3" t="n">
-        <v>17.19556020784815</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="J3" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>141.7989876128999</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L3" t="n">
-        <v>141.7989876128999</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="M3" t="n">
-        <v>345.2616536067974</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="N3" t="n">
-        <v>548.724319600695</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O3" t="n">
-        <v>752.1869855945927</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P3" t="n">
-        <v>822.0713777531216</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="Q3" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>720.9018483060073</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="S3" t="n">
-        <v>547.4845037566762</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="T3" t="n">
-        <v>345.2979091154422</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="U3" t="n">
-        <v>137.7041268545529</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="V3" t="n">
-        <v>17.19556020784815</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="W3" t="n">
-        <v>17.19556020784815</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="X3" t="n">
-        <v>17.19556020784815</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.19556020784815</v>
+        <v>5.035134973581694</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148.224788009872</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="C4" t="n">
-        <v>148.224788009872</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="D4" t="n">
-        <v>148.224788009872</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="E4" t="n">
-        <v>148.224788009872</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="F4" t="n">
-        <v>148.224788009872</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G4" t="n">
-        <v>148.224788009872</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L4" t="n">
-        <v>43.75555256277541</v>
+        <v>31.59512732850896</v>
       </c>
       <c r="M4" t="n">
-        <v>82.94359075499759</v>
+        <v>70.78316552073113</v>
       </c>
       <c r="N4" t="n">
-        <v>126.6344414104339</v>
+        <v>114.4740161761674</v>
       </c>
       <c r="O4" t="n">
-        <v>150.9737180453332</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Q4" t="n">
-        <v>148.224788009872</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="R4" t="n">
-        <v>148.224788009872</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="S4" t="n">
-        <v>148.224788009872</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="T4" t="n">
-        <v>148.224788009872</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="U4" t="n">
-        <v>148.224788009872</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="V4" t="n">
-        <v>148.224788009872</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="W4" t="n">
-        <v>148.224788009872</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="X4" t="n">
-        <v>148.224788009872</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="Y4" t="n">
-        <v>148.224788009872</v>
+        <v>4.28100232079598</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>450.6444820731278</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C5" t="n">
-        <v>450.6444820731278</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D5" t="n">
-        <v>450.6444820731278</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E5" t="n">
-        <v>450.6444820731278</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="F5" t="n">
-        <v>443.6989813239244</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="G5" t="n">
-        <v>236.1051990630351</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>236.1051990630351</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>28.51141680214578</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>614.4775954922324</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>614.4775954922324</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X5" t="n">
-        <v>614.4775954922324</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y5" t="n">
-        <v>450.6444820731278</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>619.8847831118876</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C6" t="n">
-        <v>619.8847831118876</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D6" t="n">
-        <v>575.067534196224</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E6" t="n">
-        <v>415.8300791907684</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>269.2955212176533</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>130.5646958002688</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>17.19556020784815</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7989876128999</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.5706756325438</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N6" t="n">
-        <v>366.5706756325438</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>822.0713777531216</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>822.0713777531216</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>619.8847831118876</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>619.8847831118876</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>619.8847831118876</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W6" t="n">
-        <v>619.8847831118876</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X6" t="n">
-        <v>619.8847831118876</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y6" t="n">
-        <v>619.8847831118876</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H7" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>651.2927635848137</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="C8" t="n">
-        <v>651.2927635848137</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="D8" t="n">
-        <v>651.2927635848137</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="E8" t="n">
-        <v>651.2927635848137</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="F8" t="n">
-        <v>443.6989813239244</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G8" t="n">
-        <v>236.1051990630351</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>28.51141680214578</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>28.51141680214578</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>670.6884303378189</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>670.6884303378189</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T8" t="n">
-        <v>651.2927635848137</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U8" t="n">
-        <v>651.2927635848137</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V8" t="n">
-        <v>651.2927635848137</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="W8" t="n">
-        <v>651.2927635848137</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="X8" t="n">
-        <v>651.2927635848137</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="Y8" t="n">
-        <v>651.2927635848137</v>
+        <v>343.8760884571613</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16.44142755506243</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="C9" t="n">
-        <v>16.44142755506243</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="D9" t="n">
-        <v>16.44142755506243</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="E9" t="n">
-        <v>16.44142755506243</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F9" t="n">
-        <v>16.44142755506243</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G9" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>345.2616536067974</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>345.2616536067974</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N9" t="n">
-        <v>366.5706756325438</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>822.0713777531216</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>822.0713777531216</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>619.8847831118876</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U9" t="n">
-        <v>619.8847831118876</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V9" t="n">
-        <v>619.8847831118876</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W9" t="n">
-        <v>431.628992076841</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X9" t="n">
-        <v>224.0352098159517</v>
+        <v>525.0097222980066</v>
       </c>
       <c r="Y9" t="n">
-        <v>16.44142755506243</v>
+        <v>317.2494235330527</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>148.224788009872</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>16.44142755506243</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S10" t="n">
-        <v>16.44142755506243</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T10" t="n">
-        <v>16.44142755506243</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U10" t="n">
-        <v>16.44142755506243</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V10" t="n">
-        <v>16.44142755506243</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>224.0352098159517</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="C11" t="n">
-        <v>16.44142755506243</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="D11" t="n">
-        <v>16.44142755506243</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="E11" t="n">
-        <v>16.44142755506243</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G11" t="n">
-        <v>16.44142755506243</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H11" t="n">
-        <v>16.44142755506243</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>16.44142755506243</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>176.2910403306274</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>614.4775954922324</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
-        <v>431.628992076841</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V11" t="n">
-        <v>224.0352098159517</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W11" t="n">
-        <v>224.0352098159517</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X11" t="n">
-        <v>224.0352098159517</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y11" t="n">
-        <v>224.0352098159517</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>141.7989876128999</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>141.7989876128999</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>163.1080096386462</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N12" t="n">
-        <v>366.5706756325438</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U12" t="n">
-        <v>614.4775954922324</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V12" t="n">
-        <v>406.8838132313431</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W12" t="n">
-        <v>199.2900309704538</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X12" t="n">
-        <v>199.2900309704538</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y12" t="n">
-        <v>184.6567645751305</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D14" t="n">
-        <v>822.0713777531216</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="E14" t="n">
-        <v>822.0713777531216</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F14" t="n">
-        <v>614.4775954922324</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G14" t="n">
-        <v>406.8838132313431</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H14" t="n">
-        <v>199.2900309704538</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I14" t="n">
-        <v>28.51141680214578</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>502.994951044541</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>706.4576170384386</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>822.0713777531216</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>814.3015730003187</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>814.3015730003187</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3671633390675</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>506.1297083336119</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>359.5951503604969</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>141.7989876128999</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2616536067974</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M15" t="n">
-        <v>548.724319600695</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N15" t="n">
-        <v>639.4279001397708</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O15" t="n">
-        <v>639.4279001397708</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W15" t="n">
-        <v>814.3015730003187</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X15" t="n">
-        <v>814.3015730003187</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y15" t="n">
-        <v>814.3015730003187</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5568,16 +5570,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>689.4702815141908</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="C18" t="n">
-        <v>689.4702815141908</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F18" t="n">
         <v>362.4348659156472</v>
@@ -5595,49 +5597,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T18" t="n">
-        <v>689.4702815141908</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U18" t="n">
-        <v>689.4702815141908</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="V18" t="n">
-        <v>689.4702815141908</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="W18" t="n">
-        <v>689.4702815141908</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="X18" t="n">
-        <v>689.4702815141908</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="Y18" t="n">
-        <v>689.4702815141908</v>
+        <v>362.4348659156472</v>
       </c>
     </row>
     <row r="19">
@@ -5692,31 +5694,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>730.8505943024719</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C20" t="n">
-        <v>487.4018176583718</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D20" t="n">
-        <v>487.4018176583718</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E20" t="n">
-        <v>487.4018176583718</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="F20" t="n">
-        <v>487.4018176583718</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="G20" t="n">
-        <v>487.4018176583718</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="H20" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>956.199937296544</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>956.199937296544</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>956.199937296544</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T20" t="n">
-        <v>730.8505943024719</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U20" t="n">
-        <v>730.8505943024719</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V20" t="n">
-        <v>730.8505943024719</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W20" t="n">
-        <v>730.8505943024719</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X20" t="n">
-        <v>730.8505943024719</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y20" t="n">
-        <v>730.8505943024719</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>612.718391167419</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C21" t="n">
-        <v>612.718391167419</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>463.7839815061678</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
         <v>19.28114311021272</v>
@@ -5835,16 +5837,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5859,22 +5861,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>612.718391167419</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U21" t="n">
-        <v>612.718391167419</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V21" t="n">
-        <v>612.718391167419</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W21" t="n">
-        <v>612.718391167419</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="X21" t="n">
-        <v>612.718391167419</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y21" t="n">
-        <v>612.718391167419</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="22">
@@ -5938,10 +5940,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
         <v>19.28114311021272</v>
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>40.6788758079141</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C23" t="n">
-        <v>40.6788758079141</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D23" t="n">
-        <v>40.6788758079141</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="E23" t="n">
-        <v>40.6788758079141</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6014,25 +6016,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>168.215552771464</v>
+        <v>582.7883107557723</v>
       </c>
       <c r="C24" t="n">
-        <v>168.215552771464</v>
+        <v>428.1192463369997</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6075,43 +6077,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N24" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U24" t="n">
-        <v>259.0600686093459</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V24" t="n">
-        <v>168.215552771464</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W24" t="n">
-        <v>168.215552771464</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X24" t="n">
-        <v>168.215552771464</v>
+        <v>582.7883107557723</v>
       </c>
       <c r="Y24" t="n">
-        <v>168.215552771464</v>
+        <v>582.7883107557723</v>
       </c>
     </row>
     <row r="25">
@@ -6166,19 +6168,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
         <v>19.28114311021272</v>
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W26" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X26" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="27">
@@ -6279,46 +6281,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>344.6327430815143</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N27" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6327,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W27" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>512.8480801015824</v>
       </c>
     </row>
     <row r="28">
@@ -6403,7 +6405,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
         <v>19.28114311021272</v>
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6487,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>749.627473042513</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X29" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>110.334904905842</v>
+        <v>512.8480801015824</v>
       </c>
       <c r="C30" t="n">
-        <v>110.334904905842</v>
+        <v>338.3950508204554</v>
       </c>
       <c r="D30" t="n">
-        <v>110.334904905842</v>
+        <v>338.3950508204554</v>
       </c>
       <c r="E30" t="n">
-        <v>110.334904905842</v>
+        <v>179.1575958149999</v>
       </c>
       <c r="F30" t="n">
-        <v>110.334904905842</v>
+        <v>32.62303784188484</v>
       </c>
       <c r="G30" t="n">
-        <v>110.334904905842</v>
+        <v>32.62303784188484</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>32.62303784188484</v>
       </c>
       <c r="I30" t="n">
         <v>20.03527576299844</v>
@@ -6543,19 +6545,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>178.8501590306595</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>417.4543050195419</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N30" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
         <v>894.6625969973069</v>
@@ -6564,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>318.1864051113748</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W30" t="n">
-        <v>318.1864051113748</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X30" t="n">
-        <v>110.334904905842</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y30" t="n">
-        <v>110.334904905842</v>
+        <v>512.8480801015824</v>
       </c>
     </row>
     <row r="31">
@@ -6595,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E31" t="n">
         <v>19.28114311021272</v>
@@ -6637,34 +6639,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="32">
@@ -6725,22 +6727,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>527.5764290961142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U32" t="n">
-        <v>284.1276524520142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V32" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
         <v>19.28114311021272</v>
@@ -6753,10 +6755,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>342.668582052591</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
         <v>19.28114311021272</v>
@@ -6786,43 +6788,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="T33" t="n">
-        <v>487.2836868729568</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="U33" t="n">
-        <v>487.2836868729568</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V33" t="n">
-        <v>487.2836868729568</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W33" t="n">
-        <v>487.2836868729568</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X33" t="n">
-        <v>342.668582052591</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y33" t="n">
-        <v>342.668582052591</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>591.4512093066566</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T35" t="n">
-        <v>366.1018663125844</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U35" t="n">
-        <v>262.7299197543128</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V35" t="n">
-        <v>262.7299197543128</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W35" t="n">
-        <v>19.28114311021272</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X35" t="n">
-        <v>19.28114311021272</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y35" t="n">
-        <v>19.28114311021272</v>
+        <v>325.7766548071333</v>
       </c>
     </row>
     <row r="36">
@@ -6990,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>360.2295980564601</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="C36" t="n">
-        <v>185.7765687753331</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="D36" t="n">
-        <v>185.7765687753331</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="E36" t="n">
-        <v>185.7765687753331</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F36" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>360.2295980564601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>360.2295980564601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>360.2295980564601</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X36" t="n">
-        <v>360.2295980564601</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y36" t="n">
-        <v>360.2295980564601</v>
+        <v>334.7851707561815</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I37" t="n">
         <v>829.5248650203655</v>
@@ -7120,25 +7122,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C38" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7214,10 +7216,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>165.8157010833278</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C39" t="n">
-        <v>165.8157010833278</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D39" t="n">
-        <v>165.8157010833278</v>
+        <v>571.6739692052849</v>
       </c>
       <c r="E39" t="n">
-        <v>165.8157010833278</v>
+        <v>412.4365141998294</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>265.9019562267144</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H39" t="n">
         <v>19.28114311021272</v>
@@ -7257,13 +7259,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O39" t="n">
         <v>712.019119383956</v>
@@ -7275,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W39" t="n">
-        <v>749.6428370738824</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X39" t="n">
-        <v>541.7913368683496</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y39" t="n">
-        <v>334.0310381033958</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="40">
@@ -7306,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
         <v>829.5248650203655</v>
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.44142755506243</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C41" t="n">
-        <v>16.44142755506243</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D41" t="n">
-        <v>16.44142755506243</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E41" t="n">
-        <v>16.44142755506243</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F41" t="n">
-        <v>16.44142755506243</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G41" t="n">
-        <v>16.44142755506243</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H41" t="n">
-        <v>16.44142755506243</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I41" t="n">
-        <v>16.44142755506243</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>176.2910403306274</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>614.4775954922324</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>614.4775954922324</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>614.4775954922324</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X41" t="n">
-        <v>406.8838132313431</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y41" t="n">
-        <v>199.2900309704538</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>204.697218590109</v>
+        <v>649.1947276839472</v>
       </c>
       <c r="C42" t="n">
-        <v>204.697218590109</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="D42" t="n">
-        <v>204.697218590109</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E42" t="n">
-        <v>204.697218590109</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F42" t="n">
-        <v>58.162660616994</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>345.2616536067974</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>435.9652341458732</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
-        <v>435.9652341458732</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O42" t="n">
-        <v>639.4279001397708</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>822.0713777531216</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>822.0713777531216</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T42" t="n">
-        <v>619.8847831118876</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U42" t="n">
-        <v>619.8847831118876</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V42" t="n">
-        <v>412.2910008509983</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W42" t="n">
-        <v>412.2910008509983</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X42" t="n">
-        <v>204.697218590109</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y42" t="n">
-        <v>204.697218590109</v>
+        <v>817.4100647040152</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L43" t="n">
-        <v>43.75555256277541</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M43" t="n">
-        <v>82.94359075499759</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N43" t="n">
-        <v>126.6344414104339</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>224.0352098159517</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="C44" t="n">
-        <v>224.0352098159517</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="D44" t="n">
-        <v>224.0352098159517</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="E44" t="n">
-        <v>224.0352098159517</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="G44" t="n">
-        <v>16.44142755506243</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="H44" t="n">
-        <v>16.44142755506243</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="I44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>502.994951044541</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>639.2227743377304</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T44" t="n">
-        <v>639.2227743377304</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U44" t="n">
-        <v>431.628992076841</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V44" t="n">
-        <v>431.628992076841</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W44" t="n">
-        <v>431.628992076841</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X44" t="n">
-        <v>431.628992076841</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y44" t="n">
-        <v>224.0352098159517</v>
+        <v>284.1276524520142</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>16.44142755506243</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C45" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D45" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E45" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>29.03990215807806</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>232.5025681519757</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N45" t="n">
-        <v>435.9652341458732</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O45" t="n">
-        <v>639.4279001397708</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>822.0713777531216</v>
+        <v>805.6160490608902</v>
       </c>
       <c r="T45" t="n">
-        <v>822.0713777531216</v>
+        <v>805.6160490608902</v>
       </c>
       <c r="U45" t="n">
-        <v>822.0713777531216</v>
+        <v>805.6160490608902</v>
       </c>
       <c r="V45" t="n">
-        <v>639.2227743377304</v>
+        <v>570.4639408291474</v>
       </c>
       <c r="W45" t="n">
-        <v>431.628992076841</v>
+        <v>570.4639408291474</v>
       </c>
       <c r="X45" t="n">
-        <v>224.0352098159517</v>
+        <v>570.4639408291474</v>
       </c>
       <c r="Y45" t="n">
-        <v>16.44142755506243</v>
+        <v>362.7036420641935</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>714.8532122705639</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>754.041250462786</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>797.7321011182223</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>822.0713777531216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>271.4402576706899</v>
       </c>
       <c r="L2" t="n">
-        <v>293.1751087726566</v>
+        <v>289.278943979937</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>434.9309080348713</v>
+        <v>282.9255926065406</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>283.6107404316365</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>192.0669087898239</v>
       </c>
       <c r="M3" t="n">
-        <v>347.6518783602987</v>
+        <v>195.6465629319681</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>182.6921187090427</v>
       </c>
       <c r="O3" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>204.5647025239554</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>193.4943030959713</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8219,13 +8221,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M5" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>310.4448022570774</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8298,22 +8300,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>163.6582985944894</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>292.5201795090609</v>
       </c>
       <c r="O6" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8459,10 +8461,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>311.3779718877592</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8535,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>152.8659767558044</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>348.1140888827248</v>
+        <v>303.774711870172</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,16 +8692,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8769,19 +8771,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>163.6582985944894</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N12" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8933,16 +8935,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9009,13 +9011,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>344.0722242181546</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>222.9614904056321</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
@@ -9164,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9243,16 +9245,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>303.312501347746</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9483,19 +9485,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9723,19 +9725,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N24" t="n">
-        <v>301.2485028631349</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,22 +9956,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10191,22 +10193,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10434,10 +10436,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N33" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>142.5962444444444</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,22 +10667,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10823,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10905,16 +10907,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11063,13 +11065,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11139,22 +11141,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>233.7538122443171</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O42" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11303,10 +11305,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>310.4448022570774</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11376,19 +11378,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>151.2801117021122</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>347.6518783602987</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N45" t="n">
-        <v>336.8595565216137</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>380.9243455904444</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23309,13 +23311,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>70.32553552659908</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23334,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23388,22 +23390,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U12" t="n">
-        <v>20.42353764269441</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>27.28274271114486</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>46.1771387226392</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>191.1957620459343</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23498,25 +23500,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>352.8735455476468</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>201.358201303431</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
-        <v>209.7848930768546</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
-        <v>41.40506154378102</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23577,25 +23579,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23625,19 +23627,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>244.0028764556448</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23814,13 +23816,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>126.3942969708654</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>2.183215180595141</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23932,10 +23934,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23966,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23981,16 +23983,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>255.0550143366059</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,16 +24013,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.212053182593527</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24048,19 +24050,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24099,19 +24101,19 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>24.02252309887436</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>73.57837224961185</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24178,13 +24180,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>154.3469453318533</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
-        <v>385.6922903709871</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24227,7 +24229,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24254,13 +24256,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24285,7 +24287,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>19.58612521373092</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -24294,13 +24296,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24330,25 +24332,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>142.8645164699222</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24406,7 +24408,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24415,13 +24417,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>205.1127189901543</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24440,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24485,22 +24487,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>225.414031377446</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24519,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24534,16 +24536,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>100.9359677426921</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24643,10 +24645,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>130.2684670434958</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24689,13 +24691,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24725,19 +24727,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>156.5945010984978</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>93.46335274982394</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24746,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24759,16 +24761,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24777,7 +24779,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>76.93474839331755</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>65.39427820545905</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24844,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>15.96843579630763</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24877,7 +24879,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>86.16204325169439</v>
@@ -24889,7 +24891,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24965,10 +24967,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U32" t="n">
         <v>10.33136403017744</v>
@@ -24977,13 +24979,13 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>328.0572133466886</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24996,10 +24998,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25041,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>50.10013888409016</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>62.60403143131529</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25138,10 +25140,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="35">
@@ -25160,10 +25162,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>319.5141023699695</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
@@ -25196,19 +25198,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>149.0074258151476</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25220,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25230,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25242,10 +25244,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>117.5822581481253</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -25254,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25281,25 +25283,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>29.49070495153072</v>
       </c>
     </row>
     <row r="37">
@@ -25330,7 +25332,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -25360,7 +25362,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25391,28 +25393,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25454,7 +25456,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25467,25 +25469,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>5.424356414370379</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -25515,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25530,13 +25532,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>139.5826420611766</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C40" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25625,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>201.7137242822431</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25646,10 +25648,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25682,19 +25684,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,22 +25706,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>96.03949643189839</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25728,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25752,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>160.6599100313927</v>
       </c>
     </row>
     <row r="43">
@@ -25834,7 +25836,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25846,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25874,7 +25876,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
@@ -25883,7 +25885,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>189.2921341996816</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -25913,16 +25915,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>27.99995220500799</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25941,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25965,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25992,7 +25994,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>14.82647571858925</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26001,16 +26003,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>51.78046976818791</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26080,10 +26082,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>919023.7393682976</v>
+        <v>915352.2736081742</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>919023.7393682976</v>
+        <v>919881.1039939889</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>919023.7393682976</v>
+        <v>919881.1039939889</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>362944.6045544354</v>
+        <v>382288.6367122083</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>362944.6045544352</v>
+        <v>382288.6367122083</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>382288.6367122082</v>
+        <v>382288.6367122084</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>382288.6367122083</v>
+        <v>382288.6367122084</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>382288.6367122083</v>
+        <v>382288.6367122082</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>382288.6367122084</v>
+        <v>382288.6367122083</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>362944.6045544354</v>
+        <v>382288.6367122084</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>362944.6045544355</v>
+        <v>382288.6367122083</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
-        <v>205084.9343854111</v>
+        <v>216008.874290732</v>
       </c>
       <c r="F2" t="n">
-        <v>205084.9343854111</v>
+        <v>216008.874290732</v>
       </c>
       <c r="G2" t="n">
         <v>216008.8742907321</v>
       </c>
       <c r="H2" t="n">
-        <v>216008.8742907321</v>
+        <v>216008.874290732</v>
       </c>
       <c r="I2" t="n">
         <v>216008.8742907321</v>
@@ -26344,16 +26346,16 @@
         <v>216008.8742907321</v>
       </c>
       <c r="M2" t="n">
-        <v>216008.874290732</v>
+        <v>216008.8742907321</v>
       </c>
       <c r="N2" t="n">
         <v>216008.8742907321</v>
       </c>
       <c r="O2" t="n">
-        <v>205084.9343854111</v>
+        <v>216008.874290732</v>
       </c>
       <c r="P2" t="n">
-        <v>205084.9343854111</v>
+        <v>216008.874290732</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68873.75658168984</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>60576.32218666811</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>9729.042974167098</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>53772.51089020943</v>
+        <v>14001.23214027929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>48256.95293363261</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>304569.478223967</v>
+        <v>341864.8743836957</v>
       </c>
       <c r="C4" t="n">
-        <v>304569.4782239669</v>
+        <v>295860.2172754402</v>
       </c>
       <c r="D4" t="n">
-        <v>304569.4782239668</v>
+        <v>295860.2172754403</v>
       </c>
       <c r="E4" t="n">
-        <v>16031.60407651876</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="F4" t="n">
-        <v>16031.60407651876</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="G4" t="n">
         <v>16914.68964098084</v>
@@ -26454,10 +26456,10 @@
         <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>16031.60407651876</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="P4" t="n">
-        <v>16031.60407651876</v>
+        <v>16914.68964098084</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>46123.08494184745</v>
+        <v>36881.16176380494</v>
       </c>
       <c r="C5" t="n">
-        <v>46123.08494184745</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>46123.08494184745</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26506,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>114110.83066428</v>
+        <v>136997.8350048823</v>
       </c>
       <c r="C6" t="n">
-        <v>182984.5872459699</v>
+        <v>128959.3421859143</v>
       </c>
       <c r="D6" t="n">
-        <v>182984.5872459699</v>
+        <v>189535.6643725822</v>
       </c>
       <c r="E6" t="n">
-        <v>176557.8453670449</v>
+        <v>184440.5158859895</v>
       </c>
       <c r="F6" t="n">
-        <v>176557.8453670449</v>
+        <v>184440.5158859895</v>
       </c>
       <c r="G6" t="n">
-        <v>174711.4729118225</v>
+        <v>184440.5158859896</v>
       </c>
       <c r="H6" t="n">
-        <v>184440.5158859896</v>
+        <v>184440.5158859895</v>
       </c>
       <c r="I6" t="n">
         <v>184440.5158859896</v>
       </c>
       <c r="J6" t="n">
-        <v>130668.0049957802</v>
+        <v>170439.2837457103</v>
       </c>
       <c r="K6" t="n">
-        <v>184440.5158859896</v>
+        <v>136183.5629523569</v>
       </c>
       <c r="L6" t="n">
         <v>184440.5158859896</v>
       </c>
       <c r="M6" t="n">
-        <v>184440.5158859895</v>
+        <v>184440.5158859896</v>
       </c>
       <c r="N6" t="n">
         <v>184440.5158859896</v>
       </c>
       <c r="O6" t="n">
-        <v>176557.8453670449</v>
+        <v>184440.5158859895</v>
       </c>
       <c r="P6" t="n">
-        <v>176557.8453670449</v>
+        <v>184440.5158859895</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>35.49644443937865</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>35.49644443937865</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27385,22 +27387,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>225.855928360474</v>
+        <v>386.9942370594953</v>
       </c>
       <c r="G2" t="n">
-        <v>209.7848930768546</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>4.958045132125505</v>
+        <v>156.9633605604562</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27427,13 +27429,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>155.5075405762956</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>197.8331238978867</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27503,19 +27505,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>46.64530514269338</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>118.1706420938881</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>146.6521996848718</v>
       </c>
       <c r="U3" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>113.4971061691875</v>
+        <v>186.4133429237194</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27552,7 +27554,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>31.76164565717806</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
@@ -27576,13 +27578,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>123.7808623672197</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27591,10 +27593,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>260.1571197910224</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>198.6251143138782</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27625,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>209.7848930768546</v>
+        <v>344.2880590747468</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>4.958045132125505</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27658,10 +27660,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27673,16 +27675,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>224.0431563711401</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27695,10 +27697,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="D6" t="n">
-        <v>103.0759891381317</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27713,7 +27715,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -27789,10 +27791,10 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>117.9236889088724</v>
       </c>
       <c r="I7" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -27813,10 +27815,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27862,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>201.358201303431</v>
+        <v>323.2549662883858</v>
       </c>
       <c r="G8" t="n">
-        <v>209.7848930768546</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27906,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>203.8941394786562</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27916,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27938,13 +27940,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -27977,13 +27979,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -27992,13 +27994,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>65.32175003622351</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>42.95703157945516</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28053,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.82786452690797</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -28071,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>242.2195147380239</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="L2" t="n">
-        <v>57.40869380266933</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M3" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="N3" t="n">
-        <v>205.5178444382804</v>
+        <v>51.35040662570936</v>
       </c>
       <c r="O3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>70.5902951096252</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,10 +34944,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>81.03173866048648</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35018,22 +35020,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>21.52426467247106</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="O6" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35179,10 +35181,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>81.03173866048648</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35255,22 +35257,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>21.52426467247106</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>205.5178444382804</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,16 +35412,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35489,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>21.52426467247106</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35653,16 +35655,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35729,13 +35731,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>205.5178444382804</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M15" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>91.61977832229879</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35963,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>161.1784674257276</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35981,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,19 +36205,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36443,19 +36445,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N24" t="n">
-        <v>169.9067907798016</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
       <c r="P27" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36911,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>70.09551364982758</v>
@@ -37154,10 +37156,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N33" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N33" t="n">
-        <v>169.9067907798016</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37312,7 +37314,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37385,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37625,16 +37627,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37783,13 +37785,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37859,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>205.5178444382804</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>91.61977832229879</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O42" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38023,10 +38025,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>81.03173866048648</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38096,19 +38098,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>12.72573192223801</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>205.5178444382804</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N45" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1425520.573036742</v>
+        <v>1356669.276595305</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14661612.74404855</v>
+        <v>14661612.74404854</v>
       </c>
     </row>
     <row r="9">
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="F2" t="n">
-        <v>19.88180868221617</v>
+        <v>9.891109467671333</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -703,19 +703,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -785,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>46.38724422570588</v>
       </c>
       <c r="V3" t="n">
-        <v>46.38724422570589</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -834,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>23.44046883036201</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>26.16190956546853</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>71.01467844038824</v>
+        <v>103.0088977318019</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>136.16938132102</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>44.30348359856715</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>83.62107945332558</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>175.0426595591497</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1177,28 +1177,28 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1226,16 +1226,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1265,10 +1265,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>45.25033674232265</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1277,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>162.8159536240223</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.809496073036132</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,61 +1378,61 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F11" t="n">
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R11" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I11" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1499,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>29.79900896488251</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
@@ -1511,10 +1511,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.809496073036132</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1688,19 +1688,19 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1739,19 +1739,19 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>29.79900896488251</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>241.0142888776591</v>
+        <v>40.77845356743764</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1779,19 +1779,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1846,70 +1846,70 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>52.42556848774763</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R17" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I17" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="J17" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1937,16 +1937,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1979,16 +1979,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>223.7581669003797</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>131.7659851933074</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2001,70 +2001,70 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,10 +2128,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2162,13 +2162,13 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>103.97416132794</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2207,25 +2207,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>132.1946129538656</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,67 +2320,67 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J23" t="n">
+        <v>9.737236172019017</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2399,28 +2399,28 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>153.1223737745848</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2447,16 +2447,16 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>90.16066412513263</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2465,7 +2465,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2554,23 +2554,23 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>230.2038249569697</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
+      <c r="G26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
@@ -2608,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2633,28 +2633,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>36.40754942051851</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -2684,25 +2684,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>23.17776988666324</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2803,10 +2803,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2845,13 +2845,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
-        <v>234.288905720311</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2873,16 +2873,16 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>11.01727716149734</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2891,10 +2891,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>12.46188445809753</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2936,7 +2936,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2991,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,10 +3037,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>212.285385643442</v>
-      </c>
-      <c r="U32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>70.64856914772001</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
-        <v>62.4162677022923</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3310,10 +3310,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3356,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3401,10 +3401,10 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>241.0142888776591</v>
@@ -3413,7 +3413,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>176.1919908257736</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="37">
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>212.285385643442</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3587,22 +3587,22 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>131.9191607488403</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,22 +3629,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>37.25494493997004</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3660,58 +3660,58 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3739,31 +3739,31 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
+      <c r="G41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3821,16 +3821,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3839,10 +3839,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3869,13 +3869,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>1.619716620356721</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3884,10 +3884,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>45.02278574591163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4058,28 +4058,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>139.1827916104983</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>156.8566953852486</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4115,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -4124,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4188,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>105.9439968277793</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="C2" t="n">
-        <v>105.9439968277793</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="D2" t="n">
-        <v>105.9439968277793</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="E2" t="n">
-        <v>105.9439968277793</v>
+        <v>95.85238145955222</v>
       </c>
       <c r="F2" t="n">
-        <v>85.86136179523773</v>
+        <v>85.86136179523774</v>
       </c>
       <c r="G2" t="n">
-        <v>70.40405117388919</v>
+        <v>70.4040511738892</v>
       </c>
       <c r="H2" t="n">
-        <v>70.40405117388919</v>
+        <v>70.4040511738892</v>
       </c>
       <c r="I2" t="n">
         <v>16.35099156787933</v>
       </c>
       <c r="J2" t="n">
-        <v>4.28100232079598</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="K2" t="n">
-        <v>55.11790488024824</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="L2" t="n">
-        <v>108.0953086000985</v>
+        <v>57.25840604064624</v>
       </c>
       <c r="M2" t="n">
-        <v>108.0953086000985</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="N2" t="n">
-        <v>161.0727123199487</v>
+        <v>163.2132134803468</v>
       </c>
       <c r="O2" t="n">
-        <v>214.050116039799</v>
+        <v>163.2132134803468</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>214.050116039799</v>
+        <v>203.958500671572</v>
       </c>
       <c r="R2" t="n">
-        <v>214.050116039799</v>
+        <v>203.958500671572</v>
       </c>
       <c r="S2" t="n">
-        <v>159.9970564337892</v>
+        <v>203.958500671572</v>
       </c>
       <c r="T2" t="n">
-        <v>159.9970564337892</v>
+        <v>203.958500671572</v>
       </c>
       <c r="U2" t="n">
-        <v>105.9439968277793</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="V2" t="n">
-        <v>105.9439968277793</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="W2" t="n">
-        <v>105.9439968277793</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="X2" t="n">
-        <v>105.9439968277793</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="Y2" t="n">
-        <v>105.9439968277793</v>
+        <v>149.9054410655621</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.035134973581694</v>
+        <v>59.08819457959156</v>
       </c>
       <c r="C3" t="n">
-        <v>5.035134973581694</v>
+        <v>5.035134973581695</v>
       </c>
       <c r="D3" t="n">
-        <v>5.035134973581694</v>
+        <v>5.035134973581695</v>
       </c>
       <c r="E3" t="n">
-        <v>5.035134973581694</v>
+        <v>5.035134973581695</v>
       </c>
       <c r="F3" t="n">
-        <v>5.035134973581694</v>
+        <v>5.035134973581695</v>
       </c>
       <c r="G3" t="n">
-        <v>5.035134973581694</v>
+        <v>5.035134973581695</v>
       </c>
       <c r="H3" t="n">
-        <v>5.035134973581694</v>
+        <v>5.035134973581695</v>
       </c>
       <c r="I3" t="n">
-        <v>5.035134973581694</v>
+        <v>5.035134973581695</v>
       </c>
       <c r="J3" t="n">
-        <v>4.28100232079598</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="K3" t="n">
-        <v>4.28100232079598</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="L3" t="n">
-        <v>57.25840604064623</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="M3" t="n">
-        <v>110.2358097604965</v>
+        <v>57.25840604064624</v>
       </c>
       <c r="N3" t="n">
-        <v>161.0727123199487</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="O3" t="n">
-        <v>161.0727123199487</v>
+        <v>161.0727123199488</v>
       </c>
       <c r="P3" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q3" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S3" t="n">
-        <v>105.9439968277793</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T3" t="n">
-        <v>51.89093722176946</v>
+        <v>214.050116039799</v>
       </c>
       <c r="U3" t="n">
-        <v>51.89093722176946</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="V3" t="n">
-        <v>5.035134973581694</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="W3" t="n">
-        <v>5.035134973581694</v>
+        <v>59.08819457959156</v>
       </c>
       <c r="X3" t="n">
-        <v>5.035134973581694</v>
+        <v>59.08819457959156</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.035134973581694</v>
+        <v>59.08819457959156</v>
       </c>
     </row>
     <row r="4">
@@ -4464,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.28100232079598</v>
+        <v>82.01130316959575</v>
       </c>
       <c r="C4" t="n">
-        <v>4.28100232079598</v>
+        <v>82.01130316959575</v>
       </c>
       <c r="D4" t="n">
-        <v>4.28100232079598</v>
+        <v>82.01130316959575</v>
       </c>
       <c r="E4" t="n">
-        <v>4.28100232079598</v>
+        <v>82.01130316959575</v>
       </c>
       <c r="F4" t="n">
-        <v>4.28100232079598</v>
+        <v>82.01130316959575</v>
       </c>
       <c r="G4" t="n">
-        <v>4.28100232079598</v>
+        <v>82.01130316959575</v>
       </c>
       <c r="H4" t="n">
-        <v>4.28100232079598</v>
+        <v>27.95824356358589</v>
       </c>
       <c r="I4" t="n">
-        <v>4.28100232079598</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="J4" t="n">
-        <v>4.28100232079598</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="K4" t="n">
-        <v>4.28100232079598</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="L4" t="n">
         <v>31.59512732850896</v>
@@ -4506,34 +4506,34 @@
         <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>138.8132928110667</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="Q4" t="n">
-        <v>138.8132928110667</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="R4" t="n">
-        <v>84.76023320505688</v>
+        <v>82.01130316959575</v>
       </c>
       <c r="S4" t="n">
-        <v>84.76023320505688</v>
+        <v>82.01130316959575</v>
       </c>
       <c r="T4" t="n">
-        <v>84.76023320505688</v>
+        <v>82.01130316959575</v>
       </c>
       <c r="U4" t="n">
-        <v>58.33406192680583</v>
+        <v>82.01130316959575</v>
       </c>
       <c r="V4" t="n">
-        <v>4.28100232079598</v>
+        <v>82.01130316959575</v>
       </c>
       <c r="W4" t="n">
-        <v>4.28100232079598</v>
+        <v>82.01130316959575</v>
       </c>
       <c r="X4" t="n">
-        <v>4.28100232079598</v>
+        <v>82.01130316959575</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.28100232079598</v>
+        <v>82.01130316959575</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>559.1338160830064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C5" t="n">
-        <v>559.1338160830064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="D5" t="n">
-        <v>559.1338160830064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="E5" t="n">
-        <v>559.1338160830064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="F5" t="n">
-        <v>315.6850394389064</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="G5" t="n">
         <v>243.9530410142718</v>
@@ -4594,25 +4594,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W5" t="n">
-        <v>559.1338160830064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X5" t="n">
-        <v>559.1338160830064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y5" t="n">
-        <v>559.1338160830064</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>862.8876260635219</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4649,13 +4649,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M6" t="n">
-        <v>383.2428491569326</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N6" t="n">
         <v>542.809531908403</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>826.5123258934443</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>624.3257312522103</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>396.1021129885993</v>
       </c>
       <c r="V6" t="n">
-        <v>862.8876260635219</v>
+        <v>396.1021129885993</v>
       </c>
       <c r="W6" t="n">
-        <v>862.8876260635219</v>
+        <v>396.1021129885993</v>
       </c>
       <c r="X6" t="n">
-        <v>862.8876260635219</v>
+        <v>188.2506127830665</v>
       </c>
       <c r="Y6" t="n">
-        <v>862.8876260635219</v>
+        <v>188.2506127830665</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4746,31 +4746,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>343.8760884571613</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C8" t="n">
-        <v>343.8760884571613</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D8" t="n">
-        <v>343.8760884571613</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E8" t="n">
-        <v>343.8760884571613</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F8" t="n">
-        <v>259.4103516356203</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G8" t="n">
-        <v>243.9530410142718</v>
+        <v>208.1618995887604</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>587.3248651012614</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>587.3248651012614</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>587.3248651012614</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W8" t="n">
-        <v>587.3248651012614</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X8" t="n">
-        <v>343.8760884571613</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y8" t="n">
-        <v>343.8760884571613</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>317.2494235330527</v>
+        <v>441.5762760221259</v>
       </c>
       <c r="C9" t="n">
-        <v>317.2494235330527</v>
+        <v>441.5762760221259</v>
       </c>
       <c r="D9" t="n">
-        <v>317.2494235330527</v>
+        <v>292.6418663608746</v>
       </c>
       <c r="E9" t="n">
-        <v>158.0119685275972</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F9" t="n">
-        <v>158.0119685275972</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4889,13 +4889,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>383.2428491569326</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
-        <v>621.8469951458151</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
         <v>781.4136778972854</v>
@@ -4913,22 +4913,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>689.4702815141908</v>
+        <v>441.5762760221259</v>
       </c>
       <c r="V9" t="n">
-        <v>689.4702815141908</v>
+        <v>441.5762760221259</v>
       </c>
       <c r="W9" t="n">
-        <v>689.4702815141908</v>
+        <v>441.5762760221259</v>
       </c>
       <c r="X9" t="n">
-        <v>525.0097222980066</v>
+        <v>441.5762760221259</v>
       </c>
       <c r="Y9" t="n">
-        <v>317.2494235330527</v>
+        <v>441.5762760221259</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4983,31 +4983,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>962.2293816994886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C11" t="n">
-        <v>962.2293816994886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D11" t="n">
-        <v>962.2293816994886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E11" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F11" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
         <v>19.28114311021272</v>
@@ -5062,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X11" t="n">
-        <v>964.0571555106362</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="Y11" t="n">
-        <v>964.0571555106362</v>
+        <v>333.7844730889342</v>
       </c>
     </row>
     <row r="12">
@@ -5096,13 +5096,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="E12" t="n">
         <v>19.28114311021272</v>
@@ -5123,22 +5123,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5147,25 +5147,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T12" t="n">
-        <v>933.9571464551993</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U12" t="n">
-        <v>705.7335281915883</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V12" t="n">
-        <v>470.5814199598456</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W12" t="n">
-        <v>227.1326433157456</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="X12" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5226,25 +5226,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C14" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D14" t="n">
-        <v>962.2293816994886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E14" t="n">
-        <v>962.2293816994886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F14" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G14" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H14" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
         <v>19.28114311021272</v>
@@ -5311,19 +5311,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.28114311021272</v>
+        <v>492.4565854669654</v>
       </c>
       <c r="C15" t="n">
-        <v>19.28114311021272</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="D15" t="n">
-        <v>19.28114311021272</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>542.809531908403</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N15" t="n">
-        <v>781.4136778972854</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5387,22 +5387,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>933.9571464551993</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U15" t="n">
-        <v>705.7335281915883</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V15" t="n">
-        <v>470.5814199598456</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W15" t="n">
-        <v>227.1326433157456</v>
+        <v>492.4565854669654</v>
       </c>
       <c r="X15" t="n">
-        <v>19.28114311021272</v>
+        <v>492.4565854669654</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.28114311021272</v>
+        <v>492.4565854669654</v>
       </c>
     </row>
     <row r="16">
@@ -5427,16 +5427,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5627,19 +5627,19 @@
         <v>588.4532163200711</v>
       </c>
       <c r="U18" t="n">
-        <v>362.4348659156472</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V18" t="n">
-        <v>362.4348659156472</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="W18" t="n">
-        <v>362.4348659156472</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5712,13 +5712,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>348.0024326625565</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C20" t="n">
-        <v>348.0024326625565</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D20" t="n">
-        <v>348.0024326625565</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E20" t="n">
-        <v>348.0024326625565</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>348.0024326625565</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>104.5536560184564</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5776,28 +5776,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V20" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W20" t="n">
-        <v>591.4512093066566</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X20" t="n">
-        <v>591.4512093066566</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y20" t="n">
-        <v>591.4512093066566</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="21">
@@ -5807,13 +5807,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>193.7341723913397</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E21" t="n">
         <v>19.28114311021272</v>
@@ -5846,37 +5846,37 @@
         <v>851.8101010141643</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U21" t="n">
-        <v>562.4161926976942</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V21" t="n">
-        <v>327.2640844659515</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="W21" t="n">
-        <v>327.2640844659515</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="X21" t="n">
-        <v>193.7341723913397</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="Y21" t="n">
-        <v>193.7341723913397</v>
+        <v>432.4774131586771</v>
       </c>
     </row>
     <row r="22">
@@ -5940,13 +5940,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C23" t="n">
-        <v>964.0571555106362</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="D23" t="n">
-        <v>761.6974622895962</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="E23" t="n">
-        <v>518.2486856454962</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="F23" t="n">
-        <v>274.7999090013961</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="G23" t="n">
-        <v>31.35113235729608</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="H23" t="n">
-        <v>31.35113235729608</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>29.11673520316123</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X23" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y23" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>582.7883107557723</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C24" t="n">
-        <v>428.1192463369997</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D24" t="n">
-        <v>279.1848366757484</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E24" t="n">
-        <v>279.1848366757484</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6077,7 +6077,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
         <v>473.4149733950735</v>
@@ -6095,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>872.9857776064619</v>
       </c>
       <c r="T24" t="n">
-        <v>790.6398109613051</v>
+        <v>670.7991829652278</v>
       </c>
       <c r="U24" t="n">
-        <v>790.6398109613051</v>
+        <v>670.7991829652278</v>
       </c>
       <c r="V24" t="n">
-        <v>790.6398109613051</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="W24" t="n">
-        <v>790.6398109613051</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X24" t="n">
-        <v>582.7883107557723</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y24" t="n">
-        <v>582.7883107557723</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="25">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6256,22 +6256,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V26" t="n">
-        <v>720.6083788665362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W26" t="n">
-        <v>720.6083788665362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X26" t="n">
-        <v>720.6083788665362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y26" t="n">
-        <v>720.6083788665362</v>
+        <v>738.7078125165641</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>344.6327430815143</v>
+        <v>565.0413275456638</v>
       </c>
       <c r="C27" t="n">
-        <v>170.1797138003873</v>
+        <v>565.0413275456638</v>
       </c>
       <c r="D27" t="n">
-        <v>170.1797138003873</v>
+        <v>416.1069178844125</v>
       </c>
       <c r="E27" t="n">
-        <v>170.1797138003873</v>
+        <v>256.869462878957</v>
       </c>
       <c r="F27" t="n">
-        <v>170.1797138003873</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G27" t="n">
-        <v>133.4044113554191</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I27" t="n">
         <v>20.03527576299844</v>
@@ -6308,22 +6308,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6332,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>565.0413275456638</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>565.0413275456638</v>
       </c>
       <c r="W27" t="n">
-        <v>720.6083788665362</v>
+        <v>565.0413275456638</v>
       </c>
       <c r="X27" t="n">
-        <v>720.6083788665362</v>
+        <v>565.0413275456638</v>
       </c>
       <c r="Y27" t="n">
-        <v>512.8480801015824</v>
+        <v>565.0413275456638</v>
       </c>
     </row>
     <row r="28">
@@ -6408,10 +6408,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
         <v>19.28114311021272</v>
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>742.8341567219593</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T29" t="n">
-        <v>742.8341567219593</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U29" t="n">
-        <v>499.3853800778592</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V29" t="n">
-        <v>262.7299197543128</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="W29" t="n">
-        <v>262.7299197543128</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>40.6788758079141</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>512.8480801015824</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="C30" t="n">
-        <v>338.3950508204554</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="D30" t="n">
-        <v>338.3950508204554</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>179.1575958149999</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>32.62303784188484</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>32.62303784188484</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>32.62303784188484</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>249.2442489785619</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V30" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W30" t="n">
-        <v>720.6083788665362</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="X30" t="n">
-        <v>720.6083788665362</v>
+        <v>238.1700046645579</v>
       </c>
       <c r="Y30" t="n">
-        <v>512.8480801015824</v>
+        <v>30.40970589960398</v>
       </c>
     </row>
     <row r="31">
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
         <v>19.28114311021272</v>
@@ -6639,34 +6639,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
         <v>19.28114311021272</v>
@@ -6730,22 +6730,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="U32" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V32" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W32" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="X32" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="Y32" t="n">
         <v>749.627473042513</v>
-      </c>
-      <c r="U32" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="V32" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="W32" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="X32" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>90.64333416851576</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>90.64333416851576</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>90.64333416851576</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>90.64333416851576</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>90.64333416851576</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>90.64333416851576</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>90.64333416851576</v>
       </c>
       <c r="I33" t="n">
         <v>19.28114311021272</v>
@@ -6785,46 +6785,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M33" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N33" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>913.4938269565423</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>913.4938269565423</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>913.4938269565423</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>913.4938269565423</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V33" t="n">
-        <v>678.3417187247995</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W33" t="n">
-        <v>434.8929420806995</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X33" t="n">
-        <v>227.0414418751666</v>
+        <v>90.64333416851576</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>90.64333416851576</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>325.7766548071333</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C35" t="n">
-        <v>325.7766548071333</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D35" t="n">
-        <v>325.7766548071333</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V35" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W35" t="n">
-        <v>569.2254314512334</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X35" t="n">
-        <v>569.2254314512334</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y35" t="n">
-        <v>325.7766548071333</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="36">
@@ -6992,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N36" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7049,19 +7049,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>720.6083788665362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X36" t="n">
-        <v>512.7568786610034</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y36" t="n">
-        <v>334.7851707561815</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E38" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="E38" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
         <v>19.28114311021272</v>
@@ -7216,7 +7216,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
         <v>749.627473042513</v>
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>720.6083788665362</v>
+        <v>394.8461556435558</v>
       </c>
       <c r="C39" t="n">
-        <v>720.6083788665362</v>
+        <v>394.8461556435558</v>
       </c>
       <c r="D39" t="n">
-        <v>571.6739692052849</v>
+        <v>394.8461556435558</v>
       </c>
       <c r="E39" t="n">
-        <v>412.4365141998294</v>
+        <v>394.8461556435558</v>
       </c>
       <c r="F39" t="n">
-        <v>265.9019562267144</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="G39" t="n">
-        <v>132.6502787026334</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7259,13 +7259,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N39" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
         <v>712.019119383956</v>
@@ -7277,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V39" t="n">
-        <v>964.0571555106362</v>
+        <v>394.8461556435558</v>
       </c>
       <c r="W39" t="n">
-        <v>720.6083788665362</v>
+        <v>394.8461556435558</v>
       </c>
       <c r="X39" t="n">
-        <v>720.6083788665362</v>
+        <v>394.8461556435558</v>
       </c>
       <c r="Y39" t="n">
-        <v>720.6083788665362</v>
+        <v>394.8461556435558</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C41" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D41" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E41" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F41" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G41" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7447,16 +7447,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W41" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X41" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y41" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>649.1947276839472</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="C42" t="n">
-        <v>474.7416984028202</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D42" t="n">
-        <v>325.807288741569</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E42" t="n">
-        <v>166.5698337361135</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F42" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G42" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7496,10 +7496,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M42" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N42" t="n">
         <v>725.4530095217538</v>
@@ -7517,25 +7517,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T42" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U42" t="n">
-        <v>862.8876260635219</v>
+        <v>485.6476094786571</v>
       </c>
       <c r="V42" t="n">
-        <v>862.8876260635219</v>
+        <v>485.6476094786571</v>
       </c>
       <c r="W42" t="n">
-        <v>862.8876260635219</v>
+        <v>485.6476094786571</v>
       </c>
       <c r="X42" t="n">
-        <v>862.8876260635219</v>
+        <v>277.7961092731243</v>
       </c>
       <c r="Y42" t="n">
-        <v>817.4100647040152</v>
+        <v>277.7961092731243</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>40.6788758079141</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C44" t="n">
-        <v>40.6788758079141</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D44" t="n">
-        <v>40.6788758079141</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E44" t="n">
-        <v>40.6788758079141</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F44" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
         <v>19.28114311021272</v>
@@ -7675,25 +7675,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>527.5764290961142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U44" t="n">
-        <v>527.5764290961142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V44" t="n">
-        <v>284.1276524520142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W44" t="n">
-        <v>284.1276524520142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X44" t="n">
-        <v>284.1276524520142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y44" t="n">
-        <v>284.1276524520142</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>194.4883050441255</v>
+        <v>694.6722890434539</v>
       </c>
       <c r="C45" t="n">
-        <v>20.03527576299844</v>
+        <v>694.6722890434539</v>
       </c>
       <c r="D45" t="n">
-        <v>20.03527576299844</v>
+        <v>554.0836106490112</v>
       </c>
       <c r="E45" t="n">
-        <v>20.03527576299844</v>
+        <v>394.8461556435558</v>
       </c>
       <c r="F45" t="n">
-        <v>20.03527576299844</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="G45" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M45" t="n">
-        <v>542.809531908403</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N45" t="n">
-        <v>781.4136778972854</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>805.6160490608902</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T45" t="n">
-        <v>805.6160490608902</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U45" t="n">
-        <v>805.6160490608902</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V45" t="n">
-        <v>570.4639408291474</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W45" t="n">
-        <v>570.4639408291474</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X45" t="n">
-        <v>570.4639408291474</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y45" t="n">
-        <v>362.7036420641935</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="46">
@@ -7836,10 +7836,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
         <v>19.28114311021272</v>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>271.4402576706899</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
         <v>289.278943979937</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>283.8587622372225</v>
       </c>
       <c r="N2" t="n">
-        <v>282.9255926065406</v>
+        <v>282.9255926065407</v>
       </c>
       <c r="O2" t="n">
-        <v>283.6107404316365</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>282.5834023809789</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8063,7 +8063,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>192.0669087898239</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>195.6465629319681</v>
@@ -8072,13 +8072,13 @@
         <v>182.6921187090427</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>196.1087734543942</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>187.48693642428</v>
       </c>
       <c r="Q3" t="n">
-        <v>193.4943030959713</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8221,7 +8221,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8297,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>292.5201795090609</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8537,16 +8537,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O9" t="n">
-        <v>303.774711870172</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8692,10 +8692,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8771,13 +8771,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>368.5691090902119</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9008,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,16 +9245,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>368.5691090902119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9494,13 +9494,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>255.9771075721939</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9725,10 +9725,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>241.9453110519923</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9956,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>349.0484638974528</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,25 +10193,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N30" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10433,10 +10433,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M33" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,22 +10667,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10907,16 +10907,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>231.1529892133072</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11144,13 +11144,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11378,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>380.9243455904444</v>
+        <v>312.3898338622054</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23266,19 +23266,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23302,16 +23302,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23320,7 +23320,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23345,7 +23345,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>52.90669720804131</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23387,10 +23387,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>170.3657197299391</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23399,10 +23399,10 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23436,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23500,7 +23500,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>352.8735455476468</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23509,13 +23509,13 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23551,7 +23551,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23576,19 +23576,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -23597,7 +23597,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23627,19 +23627,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>170.3657197299391</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>10.68069428326055</v>
+        <v>210.916529593482</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23667,19 +23667,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H16" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23734,28 +23734,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>362.8771690273874</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,10 +23776,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23797,7 +23797,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23825,16 +23825,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23867,16 +23867,16 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>2.183215180595141</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>101.0346019561179</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>255.0550143366059</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24016,10 +24016,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24031,7 +24031,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>146.9462822885158</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24050,13 +24050,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>68.73433766037576</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24095,25 +24095,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>73.57837224961185</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24180,7 +24180,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24208,28 +24208,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
-        <v>154.3469453318533</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>2.2120531825935</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24259,7 +24259,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24268,7 +24268,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24287,28 +24287,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>19.58612521373092</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24335,16 +24335,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>81.5225069787052</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>152.5300167065108</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24496,13 +24496,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24521,28 +24521,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>100.9359677426921</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24572,25 +24572,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>202.7636121943116</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24648,13 +24648,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24691,10 +24691,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>394.1189821444107</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24724,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24733,13 +24733,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>93.46335274982394</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24761,16 +24761,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>136.4277884031414</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24779,10 +24779,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>76.93474839331755</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
@@ -24824,7 +24824,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24846,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>15.96843579630763</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24879,7 +24879,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
         <v>86.16204325169439</v>
@@ -24888,7 +24888,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24925,10 +24925,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24970,13 +24970,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="33">
@@ -25016,7 +25016,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>18.74806370369507</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -25043,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>50.10013888409016</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25131,7 +25131,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
-        <v>319.5141023699695</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
@@ -25198,10 +25198,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25216,13 +25216,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25244,7 +25244,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -25256,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25289,10 +25289,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>10.68069428326055</v>
@@ -25301,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>29.49070495153072</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="37">
@@ -25329,10 +25329,10 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H37" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I37" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -25390,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
@@ -25456,10 +25456,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="39">
@@ -25475,22 +25475,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>5.424356414370379</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25517,22 +25517,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>195.5456422094552</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25599,7 +25599,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25627,31 +25627,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25687,16 +25687,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25709,16 +25709,16 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
@@ -25727,10 +25727,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25757,13 +25757,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>224.3216654606181</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25772,10 +25772,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>160.6599100313927</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25876,16 +25876,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>189.2921341996816</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -25915,16 +25915,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25946,28 +25946,28 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>8.262273954140483</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>14.82647571858925</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26003,7 +26003,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -26012,7 +26012,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26076,13 +26076,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U46" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>382288.6367122083</v>
+        <v>382288.6367122084</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>382288.6367122083</v>
+        <v>382288.6367122084</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>382288.6367122084</v>
+        <v>382288.6367122083</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>382288.6367122082</v>
+        <v>382288.6367122083</v>
       </c>
     </row>
     <row r="13">
@@ -26316,19 +26316,19 @@
         <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
+        <v>216008.8742907321</v>
+      </c>
+      <c r="F2" t="n">
+        <v>216008.8742907321</v>
+      </c>
+      <c r="G2" t="n">
         <v>216008.874290732</v>
-      </c>
-      <c r="F2" t="n">
-        <v>216008.874290732</v>
-      </c>
-      <c r="G2" t="n">
-        <v>216008.8742907321</v>
       </c>
       <c r="H2" t="n">
         <v>216008.874290732</v>
@@ -26349,13 +26349,13 @@
         <v>216008.8742907321</v>
       </c>
       <c r="N2" t="n">
+        <v>216008.874290732</v>
+      </c>
+      <c r="O2" t="n">
         <v>216008.8742907321</v>
       </c>
-      <c r="O2" t="n">
-        <v>216008.874290732</v>
-      </c>
       <c r="P2" t="n">
-        <v>216008.874290732</v>
+        <v>216008.8742907321</v>
       </c>
     </row>
     <row r="3">
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>341864.8743836957</v>
+        <v>341864.8743836956</v>
       </c>
       <c r="C4" t="n">
         <v>295860.2172754402</v>
       </c>
       <c r="D4" t="n">
-        <v>295860.2172754403</v>
+        <v>295860.2172754402</v>
       </c>
       <c r="E4" t="n">
         <v>16914.68964098084</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>136997.8350048823</v>
+        <v>136997.8350048824</v>
       </c>
       <c r="C6" t="n">
-        <v>128959.3421859143</v>
+        <v>128959.3421859141</v>
       </c>
       <c r="D6" t="n">
-        <v>189535.6643725822</v>
+        <v>189535.6643725823</v>
       </c>
       <c r="E6" t="n">
-        <v>184440.5158859895</v>
+        <v>172222.5052659491</v>
       </c>
       <c r="F6" t="n">
-        <v>184440.5158859895</v>
+        <v>172222.5052659491</v>
       </c>
       <c r="G6" t="n">
-        <v>184440.5158859896</v>
+        <v>172222.505265949</v>
       </c>
       <c r="H6" t="n">
-        <v>184440.5158859895</v>
+        <v>172222.5052659491</v>
       </c>
       <c r="I6" t="n">
-        <v>184440.5158859896</v>
+        <v>172222.5052659491</v>
       </c>
       <c r="J6" t="n">
-        <v>170439.2837457103</v>
+        <v>158221.2731256698</v>
       </c>
       <c r="K6" t="n">
-        <v>136183.5629523569</v>
+        <v>123965.5523323165</v>
       </c>
       <c r="L6" t="n">
-        <v>184440.5158859896</v>
+        <v>172222.5052659491</v>
       </c>
       <c r="M6" t="n">
-        <v>184440.5158859896</v>
+        <v>172222.5052659491</v>
       </c>
       <c r="N6" t="n">
-        <v>184440.5158859896</v>
+        <v>172222.5052659491</v>
       </c>
       <c r="O6" t="n">
-        <v>184440.5158859895</v>
+        <v>172222.5052659491</v>
       </c>
       <c r="P6" t="n">
-        <v>184440.5158859895</v>
+        <v>172222.5052659491</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="C4" t="n">
         <v>241.0142888776591</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="C4" t="n">
         <v>187.5017598677093</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="K4" t="n">
         <v>187.5017598677093</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="K4" t="n">
         <v>187.5017598677093</v>
@@ -27387,10 +27387,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>328.417841062312</v>
       </c>
       <c r="F2" t="n">
-        <v>386.9942370594953</v>
+        <v>396.9849362740401</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27423,13 +27423,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>155.5075405762956</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27460,7 +27460,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>119.195969978366</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27505,22 +27505,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>46.64530514269338</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>118.1706420938881</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>146.6521996848718</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>179.5541378552689</v>
       </c>
       <c r="V3" t="n">
-        <v>186.4133429237194</v>
+        <v>179.2880581394755</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>198.1824541509698</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27554,10 +27554,10 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>108.7146434974898</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>132.0100060968963</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27593,10 +27593,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>260.1571197910224</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>198.6251143138782</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27630,7 +27630,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>344.2880590747468</v>
+        <v>312.2938397833332</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>127.4196248553433</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,16 +27742,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>35.51378978281784</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27760,7 +27760,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27791,7 +27791,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>117.9236889088724</v>
+        <v>54.03113748306089</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>323.2549662883858</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>164.4321425566175</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27897,28 +27897,28 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27937,7 +27937,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -27946,16 +27946,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27985,10 +27985,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>180.6910453386522</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -27997,10 +27997,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>42.95703157945516</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28022,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>37.22501299855256</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>242.2195147380239</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>51.35040662570935</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="N2" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="O2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>51.35040662570938</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34783,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="N3" t="n">
-        <v>51.35040662570936</v>
+        <v>51.35040662570938</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="Q3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35257,16 +35257,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N9" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O9" t="n">
-        <v>161.1784674257276</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35491,13 +35491,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>226.4350751681936</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35509,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35661,7 +35661,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P14" t="n">
         <v>90.5657124162131</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35983,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36214,13 +36214,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>113.3808631277494</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36445,10 +36445,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
         <v>99.81127712997396</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>217.7067518141195</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N30" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37153,10 +37153,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M33" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
@@ -37168,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N36" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O36" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37627,16 +37627,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>99.8112771299739</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37864,13 +37864,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
